--- a/examples/cases/virtualriver/VirtualRiver.xlsx
+++ b/examples/cases/virtualriver/VirtualRiver.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -42,14 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,346 +58,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -411,309 +75,279 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2.9550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.855</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.835</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.8050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.7850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.7650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7549999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="52440448"/>
+        <c:axId val="52438912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52440448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52438912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52438912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52440448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,10 +355,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="B9C3C7"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="2F3D44"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1002,18 +636,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.5733333333333" customWidth="1"/>
-    <col min="8" max="8" width="14.14" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1044,7 +677,8 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <f>B3+0.005</f>
+        <v>2.9550000000000001</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1092,7 +726,7 @@
         <v>1000</v>
       </c>
       <c r="B4">
-        <v>2.945</v>
+        <v>2.9449999999999998</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1140,7 +774,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>2.935</v>
+        <v>2.9350000000000001</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1188,7 +822,7 @@
         <v>3000</v>
       </c>
       <c r="B8">
-        <v>2.925</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1284,7 +918,7 @@
         <v>5000</v>
       </c>
       <c r="B12">
-        <v>2.905</v>
+        <v>2.9049999999999998</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -1380,7 +1014,7 @@
         <v>7000</v>
       </c>
       <c r="B16">
-        <v>2.885</v>
+        <v>2.8849999999999998</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -1476,7 +1110,7 @@
         <v>9000</v>
       </c>
       <c r="B20">
-        <v>2.865</v>
+        <v>2.8650000000000002</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1572,7 +1206,7 @@
         <v>11000</v>
       </c>
       <c r="B24">
-        <v>2.845</v>
+        <v>2.8450000000000002</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -1668,7 +1302,7 @@
         <v>13000</v>
       </c>
       <c r="B28">
-        <v>2.825</v>
+        <v>2.8250000000000002</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -1716,7 +1350,7 @@
         <v>14000</v>
       </c>
       <c r="B30">
-        <v>2.815</v>
+        <v>2.8149999999999999</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
@@ -1764,7 +1398,7 @@
         <v>15000</v>
       </c>
       <c r="B32">
-        <v>2.805</v>
+        <v>2.8050000000000002</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
@@ -1812,7 +1446,7 @@
         <v>16000</v>
       </c>
       <c r="B34">
-        <v>2.795</v>
+        <v>2.7949999999999999</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -1860,7 +1494,7 @@
         <v>17000</v>
       </c>
       <c r="B36">
-        <v>2.785</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
@@ -1908,7 +1542,7 @@
         <v>18000</v>
       </c>
       <c r="B38">
-        <v>2.775</v>
+        <v>2.7749999999999999</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
@@ -1956,7 +1590,7 @@
         <v>19000</v>
       </c>
       <c r="B40">
-        <v>2.765</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
@@ -2004,7 +1638,7 @@
         <v>20000</v>
       </c>
       <c r="B42">
-        <v>2.755</v>
+        <v>2.7549999999999999</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
@@ -2023,39 +1657,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>